--- a/xlsx/生物燃油_intext.xlsx
+++ b/xlsx/生物燃油_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="437">
   <si>
     <t>生物燃油</t>
   </si>
@@ -29,7 +29,7 @@
     <t>可再生能源</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_生物燃油</t>
+    <t>政策_政策_混合动力车辆_生物燃油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%87%83%E6%96%99</t>
@@ -41,19 +41,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%86%B1%E8%83%BD</t>
   </si>
   <si>
-    <t>地熱能</t>
+    <t>地热能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E5%8A%9B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>水力發電</t>
+    <t>水力发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>太陽能</t>
+    <t>太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%AE%E6%B1%90%E8%83%BD</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%83%BD</t>
   </si>
   <si>
-    <t>風能</t>
+    <t>风能</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_renewable_energy_topics_by_country</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E6%A9%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>有機物</t>
+    <t>有机物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>生質燃料</t>
+    <t>生质燃料</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>化學物質</t>
+    <t>化学物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%AD%E8%83%BD</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8F%AF%E9%99%8D%E8%A7%A3%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>生物可降解物質</t>
+    <t>生物可降解物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%82%AD</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%95%E6%AB%9A%E6%A8%B9</t>
   </si>
   <si>
-    <t>棕櫚樹</t>
+    <t>棕榈树</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E7%9F%B3%E7%87%83%E6%96%99</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3%E5%BE%AA%E7%92%B0</t>
   </si>
   <si>
-    <t>碳循環</t>
+    <t>碳循环</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E8%B3%AA%E6%9F%B4%E6%B2%B9</t>
   </si>
   <si>
-    <t>生質柴油</t>
+    <t>生质柴油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%86%E8%82%A5</t>
@@ -245,19 +245,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8E%AD%E6%B0%A7%E6%B6%88%E5%8C%96</t>
   </si>
   <si>
-    <t>厭氧消化</t>
+    <t>厌氧消化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%85%B5</t>
   </si>
   <si>
-    <t>發酵</t>
+    <t>发酵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E9%A4%BE</t>
   </si>
   <si>
-    <t>蒸餾</t>
+    <t>蒸馏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%99%E9%86%87</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%B8%E6%B0%A3</t>
   </si>
   <si>
-    <t>蒸氣</t>
+    <t>蒸气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E9%86%87</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97%E9%96%8B%E4%BC%90</t>
   </si>
   <si>
-    <t>森林開伐</t>
+    <t>森林开伐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%BD%E5%B8%82%E5%8C%96</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>溫室氣體</t>
+    <t>温室气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生態系統</t>
+    <t>生态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%96%B9%E5%85%AC%E9%87%8C</t>
@@ -365,13 +365,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E5%B8%B6%E9%9B%A8%E6%9E%97</t>
   </si>
   <si>
-    <t>熱帶雨林</t>
+    <t>热带雨林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%B8%B6%E8%90%BD%E8%91%89%E6%9E%97</t>
   </si>
   <si>
-    <t>溫帶落葉林</t>
+    <t>温带落叶林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%AE%E6%9E%97</t>
@@ -413,7 +413,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%BC%E6%BE%A4</t>
   </si>
   <si>
-    <t>沼澤</t>
+    <t>沼泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B9%96%E6%B3%8A</t>
@@ -443,7 +443,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%A3%9A</t>
   </si>
   <si>
-    <t>大陸棚</t>
+    <t>大陆棚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%8A%E7%91%9A%E7%A4%81</t>
@@ -521,7 +521,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%BB%E9%A1%9E%E7%94%9F%E8%B3%AA%E7%87%83%E6%96%99</t>
   </si>
   <si>
-    <t>藻類生質燃料</t>
+    <t>藻类生质燃料</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Babassu_oil</t>
@@ -545,7 +545,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>生物氣體</t>
+    <t>生物气体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biogasoline</t>
@@ -563,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%96%E7%B6%AD%E7%B4%A0%E4%B9%99%E9%86%87</t>
   </si>
   <si>
-    <t>纖維素乙醇</t>
+    <t>纤维素乙醇</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Common_ethanol_fuel_mixtures</t>
@@ -611,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%83%E6%B2%B9%E8%84%82%E8%86%8F</t>
   </si>
   <si>
-    <t>黃油脂膏</t>
+    <t>黄油脂膏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9E%E9%8D%8B%E6%B2%B9</t>
   </si>
   <si>
-    <t>回鍋油</t>
+    <t>回锅油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E6%B2%9F%E6%B2%B9</t>
@@ -731,7 +731,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E6%A1%95</t>
   </si>
   <si>
-    <t>烏桕</t>
+    <t>乌桕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%AE%E8%90%8D</t>
@@ -851,43 +851,43 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89</t>
   </si>
   <si>
-    <t>電源供應</t>
+    <t>电源供应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9F%E7%8E%87</t>
   </si>
   <si>
-    <t>電功率</t>
+    <t>电功率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓電</t>
+    <t>高压电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>直流電</t>
+    <t>直流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%B5%81%E9%9B%BB</t>
   </si>
   <si>
-    <t>交流電</t>
+    <t>交流电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>單相電</t>
+    <t>单相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>三相電</t>
+    <t>三相电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E7%8E%87%E5%9B%A0%E6%95%B0</t>
@@ -911,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93</t>
   </si>
   <si>
-    <t>電壓</t>
+    <t>电压</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E6%B5%81</t>
@@ -929,7 +929,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%8D%E5%AE%9A%E5%AE%B9%E9%87%8F</t>
   </si>
   <si>
-    <t>額定容量</t>
+    <t>额定容量</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%9B%B8_(%E7%94%B5%E5%AD%A6)</t>
@@ -947,7 +947,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E5%8A%9B%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>火力發電廠</t>
+    <t>火力发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4</t>
@@ -959,13 +959,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E6%B0%A3</t>
   </si>
   <si>
-    <t>天然氣</t>
+    <t>天然气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%B9%E9%A0%81%E5%B2%A9</t>
   </si>
   <si>
-    <t>油頁岩</t>
+    <t>油页岩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%B5%E5%B2%A9%E6%B2%B9</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%8B%95%E5%8A%9B</t>
   </si>
   <si>
-    <t>核動力</t>
+    <t>核动力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B2%E7%83%B7%E6%B0%B4%E5%90%88%E7%89%A9</t>
@@ -995,9 +995,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E8%83%BD</t>
   </si>
   <si>
-    <t>太阳能</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B4%8B%E8%83%BD</t>
   </si>
   <si>
@@ -1013,19 +1010,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E6%BA%AB%E5%B7%AE%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>海水溫差發電</t>
+    <t>海水温差发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%B0%B4%E9%B9%BD%E5%B7%AE%E8%83%BD</t>
   </si>
   <si>
-    <t>海水鹽差能</t>
+    <t>海水盐差能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>發電</t>
+    <t>发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%91%E7%94%B5%E6%9C%BA</t>
@@ -1043,7 +1040,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>微型發電</t>
+    <t>微型发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%9E%8B%E7%83%AD%E7%94%B5%E8%81%94%E4%BA%A7</t>
@@ -1061,13 +1058,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%9C%AC%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>基本負載發電廠</t>
+    <t>基本负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%96%E5%B3%B0%E8%B2%A0%E8%BC%89%E7%99%BC%E9%9B%BB%E5%BB%A0</t>
   </si>
   <si>
-    <t>尖峰負載發電廠</t>
+    <t>尖峰负载发电厂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%A8%E8%83%BD%E6%8A%80%E6%9C%AF</t>
@@ -1103,13 +1100,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B6%B2%E6%B5%81%E9%9B%BB%E6%B1%A0</t>
   </si>
   <si>
-    <t>液流電池</t>
+    <t>液流电池</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%B6%B2%E5%84%B2%E8%83%BD</t>
   </si>
   <si>
-    <t>電網儲能</t>
+    <t>电网储能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9E%E8%BD%AE%E5%82%A8%E8%83%BD</t>
@@ -1151,19 +1148,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%8D%BB%E5%A1%94</t>
   </si>
   <si>
-    <t>冷卻塔</t>
+    <t>冷却塔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%8A%9B%E7%B7%9A%E9%80%9A%E4%BF%A1</t>
   </si>
   <si>
-    <t>電力線通信</t>
+    <t>电力线通信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E9%9B%BB%E8%A1%A8</t>
   </si>
   <si>
-    <t>智慧型電表</t>
+    <t>智慧型电表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%97%E8%82%AF%E5%BE%AA%E7%8E%AF</t>
@@ -1175,13 +1172,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E5%B0%8E%E9%AB%94</t>
   </si>
   <si>
-    <t>超導體</t>
+    <t>超导体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%B8%E9%9B%BB%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>輸電網路</t>
+    <t>输电网路</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Transmission_tower</t>
@@ -1193,25 +1190,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%A3%93%E7%9B%B4%E6%B5%81%E8%BC%B8%E9%9B%BB</t>
   </si>
   <si>
-    <t>高壓直流輸電</t>
+    <t>高压直流输电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>智慧電網</t>
+    <t>智慧电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E7%B6%B2</t>
   </si>
   <si>
-    <t>超級電網</t>
+    <t>超级电网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%8A%E9%9B%BB%E6%89%80</t>
   </si>
   <si>
-    <t>變電所</t>
+    <t>变电所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E5%8E%8B%E5%99%A8</t>
@@ -1229,19 +1226,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E6%95%A3%E5%BC%8F%E7%99%BC%E9%9B%BB</t>
   </si>
   <si>
-    <t>分散式發電</t>
+    <t>分散式发电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%A3%93%E9%A9%9F%E9%99%8D</t>
   </si>
   <si>
-    <t>電壓驟降</t>
+    <t>电压骤降</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9C%E9%9B%BB</t>
   </si>
   <si>
-    <t>停電</t>
+    <t>停电</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rolling_blackout</t>
@@ -1253,7 +1250,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%85%8B%E7%A8%85</t>
   </si>
   <si>
-    <t>生態稅</t>
+    <t>生态税</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Energy_subsidies</t>
@@ -1283,7 +1280,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AF%80%E7%B4%84%E8%83%BD%E6%BA%90</t>
   </si>
   <si>
-    <t>節約能源</t>
+    <t>节约能源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%80%E8%AE%A1%E9%87%8F%E7%94%B5%E4%BB%B7</t>
@@ -1307,7 +1304,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1319,7 +1316,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E8%B4%A8</t>
@@ -3152,7 +3149,7 @@
         <v>102</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51" t="s">
         <v>4</v>
@@ -3297,7 +3294,7 @@
         <v>86</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" t="s">
         <v>4</v>
@@ -6455,7 +6452,7 @@
         <v>325</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>12</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6481,10 +6478,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
+        <v>326</v>
+      </c>
+      <c r="F166" t="s">
         <v>327</v>
-      </c>
-      <c r="F166" t="s">
-        <v>328</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6510,10 +6507,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
+        <v>328</v>
+      </c>
+      <c r="F167" t="s">
         <v>329</v>
-      </c>
-      <c r="F167" t="s">
-        <v>330</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6539,10 +6536,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
+        <v>330</v>
+      </c>
+      <c r="F168" t="s">
         <v>331</v>
-      </c>
-      <c r="F168" t="s">
-        <v>332</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6568,10 +6565,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
+        <v>332</v>
+      </c>
+      <c r="F169" t="s">
         <v>333</v>
-      </c>
-      <c r="F169" t="s">
-        <v>334</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6597,10 +6594,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
+        <v>334</v>
+      </c>
+      <c r="F170" t="s">
         <v>335</v>
-      </c>
-      <c r="F170" t="s">
-        <v>336</v>
       </c>
       <c r="G170" t="n">
         <v>14</v>
@@ -6626,10 +6623,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
+        <v>336</v>
+      </c>
+      <c r="F171" t="s">
         <v>337</v>
-      </c>
-      <c r="F171" t="s">
-        <v>338</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6655,10 +6652,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
+        <v>338</v>
+      </c>
+      <c r="F172" t="s">
         <v>339</v>
-      </c>
-      <c r="F172" t="s">
-        <v>340</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6684,10 +6681,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
+        <v>340</v>
+      </c>
+      <c r="F173" t="s">
         <v>341</v>
-      </c>
-      <c r="F173" t="s">
-        <v>342</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6713,10 +6710,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
+        <v>342</v>
+      </c>
+      <c r="F174" t="s">
         <v>343</v>
-      </c>
-      <c r="F174" t="s">
-        <v>344</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6742,10 +6739,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
+        <v>344</v>
+      </c>
+      <c r="F175" t="s">
         <v>345</v>
-      </c>
-      <c r="F175" t="s">
-        <v>346</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6771,10 +6768,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>346</v>
+      </c>
+      <c r="F176" t="s">
         <v>347</v>
-      </c>
-      <c r="F176" t="s">
-        <v>348</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6800,10 +6797,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
+        <v>348</v>
+      </c>
+      <c r="F177" t="s">
         <v>349</v>
-      </c>
-      <c r="F177" t="s">
-        <v>350</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6829,10 +6826,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
+        <v>350</v>
+      </c>
+      <c r="F178" t="s">
         <v>351</v>
-      </c>
-      <c r="F178" t="s">
-        <v>352</v>
       </c>
       <c r="G178" t="n">
         <v>5</v>
@@ -6858,10 +6855,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
+        <v>352</v>
+      </c>
+      <c r="F179" t="s">
         <v>353</v>
-      </c>
-      <c r="F179" t="s">
-        <v>354</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6887,10 +6884,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
+        <v>354</v>
+      </c>
+      <c r="F180" t="s">
         <v>355</v>
-      </c>
-      <c r="F180" t="s">
-        <v>356</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -6916,10 +6913,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
+        <v>356</v>
+      </c>
+      <c r="F181" t="s">
         <v>357</v>
-      </c>
-      <c r="F181" t="s">
-        <v>358</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6945,10 +6942,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
+        <v>358</v>
+      </c>
+      <c r="F182" t="s">
         <v>359</v>
-      </c>
-      <c r="F182" t="s">
-        <v>360</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6974,10 +6971,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
+        <v>360</v>
+      </c>
+      <c r="F183" t="s">
         <v>361</v>
-      </c>
-      <c r="F183" t="s">
-        <v>362</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7003,10 +7000,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>362</v>
+      </c>
+      <c r="F184" t="s">
         <v>363</v>
-      </c>
-      <c r="F184" t="s">
-        <v>364</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7032,10 +7029,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
+        <v>364</v>
+      </c>
+      <c r="F185" t="s">
         <v>365</v>
-      </c>
-      <c r="F185" t="s">
-        <v>366</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7061,10 +7058,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" t="s">
         <v>367</v>
-      </c>
-      <c r="F186" t="s">
-        <v>368</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7090,10 +7087,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
+        <v>368</v>
+      </c>
+      <c r="F187" t="s">
         <v>369</v>
-      </c>
-      <c r="F187" t="s">
-        <v>370</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7119,10 +7116,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
+        <v>370</v>
+      </c>
+      <c r="F188" t="s">
         <v>371</v>
-      </c>
-      <c r="F188" t="s">
-        <v>372</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7148,10 +7145,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
+        <v>372</v>
+      </c>
+      <c r="F189" t="s">
         <v>373</v>
-      </c>
-      <c r="F189" t="s">
-        <v>374</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7177,10 +7174,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
+        <v>374</v>
+      </c>
+      <c r="F190" t="s">
         <v>375</v>
-      </c>
-      <c r="F190" t="s">
-        <v>376</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7206,10 +7203,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
+        <v>376</v>
+      </c>
+      <c r="F191" t="s">
         <v>377</v>
-      </c>
-      <c r="F191" t="s">
-        <v>378</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7235,10 +7232,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
+        <v>378</v>
+      </c>
+      <c r="F192" t="s">
         <v>379</v>
-      </c>
-      <c r="F192" t="s">
-        <v>380</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7264,10 +7261,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
+        <v>380</v>
+      </c>
+      <c r="F193" t="s">
         <v>381</v>
-      </c>
-      <c r="F193" t="s">
-        <v>382</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7293,10 +7290,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
+        <v>382</v>
+      </c>
+      <c r="F194" t="s">
         <v>383</v>
-      </c>
-      <c r="F194" t="s">
-        <v>384</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7322,10 +7319,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
+        <v>384</v>
+      </c>
+      <c r="F195" t="s">
         <v>385</v>
-      </c>
-      <c r="F195" t="s">
-        <v>386</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7351,10 +7348,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
+        <v>386</v>
+      </c>
+      <c r="F196" t="s">
         <v>387</v>
-      </c>
-      <c r="F196" t="s">
-        <v>388</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7380,10 +7377,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
+        <v>388</v>
+      </c>
+      <c r="F197" t="s">
         <v>389</v>
-      </c>
-      <c r="F197" t="s">
-        <v>390</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7409,10 +7406,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
+        <v>390</v>
+      </c>
+      <c r="F198" t="s">
         <v>391</v>
-      </c>
-      <c r="F198" t="s">
-        <v>392</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7438,10 +7435,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" t="s">
-        <v>394</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7467,10 +7464,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
+        <v>394</v>
+      </c>
+      <c r="F200" t="s">
         <v>395</v>
-      </c>
-      <c r="F200" t="s">
-        <v>396</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7496,10 +7493,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
+        <v>396</v>
+      </c>
+      <c r="F201" t="s">
         <v>397</v>
-      </c>
-      <c r="F201" t="s">
-        <v>398</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -7525,10 +7522,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>398</v>
+      </c>
+      <c r="F202" t="s">
         <v>399</v>
-      </c>
-      <c r="F202" t="s">
-        <v>400</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -7554,10 +7551,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
+        <v>400</v>
+      </c>
+      <c r="F203" t="s">
         <v>401</v>
-      </c>
-      <c r="F203" t="s">
-        <v>402</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7583,10 +7580,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>402</v>
+      </c>
+      <c r="F204" t="s">
         <v>403</v>
-      </c>
-      <c r="F204" t="s">
-        <v>404</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7612,10 +7609,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>404</v>
+      </c>
+      <c r="F205" t="s">
         <v>405</v>
-      </c>
-      <c r="F205" t="s">
-        <v>406</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7641,10 +7638,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>406</v>
+      </c>
+      <c r="F206" t="s">
         <v>407</v>
-      </c>
-      <c r="F206" t="s">
-        <v>408</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7670,10 +7667,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>408</v>
+      </c>
+      <c r="F207" t="s">
         <v>409</v>
-      </c>
-      <c r="F207" t="s">
-        <v>410</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7699,10 +7696,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>410</v>
+      </c>
+      <c r="F208" t="s">
         <v>411</v>
-      </c>
-      <c r="F208" t="s">
-        <v>412</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7728,10 +7725,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>412</v>
+      </c>
+      <c r="F209" t="s">
         <v>413</v>
-      </c>
-      <c r="F209" t="s">
-        <v>414</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7757,10 +7754,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>414</v>
+      </c>
+      <c r="F210" t="s">
         <v>415</v>
-      </c>
-      <c r="F210" t="s">
-        <v>416</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7786,10 +7783,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>416</v>
+      </c>
+      <c r="F211" t="s">
         <v>417</v>
-      </c>
-      <c r="F211" t="s">
-        <v>418</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7844,10 +7841,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>418</v>
+      </c>
+      <c r="F213" t="s">
         <v>419</v>
-      </c>
-      <c r="F213" t="s">
-        <v>420</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7873,10 +7870,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>420</v>
+      </c>
+      <c r="F214" t="s">
         <v>421</v>
-      </c>
-      <c r="F214" t="s">
-        <v>422</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7902,10 +7899,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>422</v>
+      </c>
+      <c r="F215" t="s">
         <v>423</v>
-      </c>
-      <c r="F215" t="s">
-        <v>424</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7931,10 +7928,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
+        <v>424</v>
+      </c>
+      <c r="F216" t="s">
         <v>425</v>
-      </c>
-      <c r="F216" t="s">
-        <v>426</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7960,10 +7957,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
+        <v>426</v>
+      </c>
+      <c r="F217" t="s">
         <v>427</v>
-      </c>
-      <c r="F217" t="s">
-        <v>428</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -7989,10 +7986,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
+        <v>428</v>
+      </c>
+      <c r="F218" t="s">
         <v>429</v>
-      </c>
-      <c r="F218" t="s">
-        <v>430</v>
       </c>
       <c r="G218" t="n">
         <v>3</v>
@@ -8018,10 +8015,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
+        <v>430</v>
+      </c>
+      <c r="F219" t="s">
         <v>431</v>
-      </c>
-      <c r="F219" t="s">
-        <v>432</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8047,10 +8044,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>432</v>
+      </c>
+      <c r="F220" t="s">
         <v>433</v>
-      </c>
-      <c r="F220" t="s">
-        <v>434</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8076,10 +8073,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
+        <v>434</v>
+      </c>
+      <c r="F221" t="s">
         <v>435</v>
-      </c>
-      <c r="F221" t="s">
-        <v>436</v>
       </c>
       <c r="G221" t="n">
         <v>5</v>
@@ -8105,10 +8102,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F222" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
